--- a/raw_data/finaldata_original.xlsx
+++ b/raw_data/finaldata_original.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sli/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sli/Gov-50/global_poverty/SSA-poverty/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BF5852-8B62-C444-8A5D-C5AC43937FD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AB7699-A8BE-2942-86CC-5159C05DA789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46940" yWindow="460" windowWidth="34760" windowHeight="27020" xr2:uid="{6F19D019-BD68-4337-AE13-BC7A6AF47C8F}"/>
+    <workbookView xWindow="46940" yWindow="460" windowWidth="34760" windowHeight="27020" activeTab="1" xr2:uid="{6F19D019-BD68-4337-AE13-BC7A6AF47C8F}"/>
   </bookViews>
   <sheets>
     <sheet name="region_poverty" sheetId="1" r:id="rId1"/>
-    <sheet name="country_poverty" sheetId="2" r:id="rId2"/>
+    <sheet name="country_poverty" sheetId="4" r:id="rId2"/>
     <sheet name="country_GDPpc" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -714,7 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1485FA2A-A73D-4636-9FFE-4F3DE4C09EA8}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
@@ -1307,10 +1307,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFA9AC6-2159-42CA-8261-37F920B5CF37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F63A2E7-50A3-E840-980E-511A41457367}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
